--- a/CFD files/Drag lift.xlsx
+++ b/CFD files/Drag lift.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/mter153_uoa_auckland_ac_nz/Documents/Documents/ENGSCI 344/Assignment/Plane_wing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/mter153_uoa_auckland_ac_nz/Documents/Documents/ENGSCI 344/Assignment/Plane_wing/CFD files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC1048D8295E7C125ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF9B0EDF-B06C-4B91-A634-58C7041A45A7}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{6A96FC55-E235-4CFF-85EA-4344623012AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{140E732B-94D6-421E-9A22-5424D66066D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Domain area</t>
   </si>
@@ -60,13 +60,97 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here we can see clear convergence </t>
+  </si>
+  <si>
+    <t>Will use option highlighted as red for domain</t>
+  </si>
+  <si>
+    <t>Final Domain options</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>Mesh convergence</t>
+  </si>
+  <si>
+    <t>0.06 m</t>
+  </si>
+  <si>
+    <t>0.05 m</t>
+  </si>
+  <si>
+    <t>0.04 m</t>
+  </si>
+  <si>
+    <t>0.03 m</t>
+  </si>
+  <si>
+    <t>0.01 m</t>
+  </si>
+  <si>
+    <t>Mean mesh size</t>
+  </si>
+  <si>
+    <t>0.08 m</t>
+  </si>
+  <si>
+    <t>Node count</t>
+  </si>
+  <si>
+    <t>Mean mesh size difference</t>
+  </si>
+  <si>
+    <t>Choose this one</t>
+  </si>
+  <si>
+    <t>Too slow</t>
+  </si>
+  <si>
+    <t>Domain is far too big</t>
+  </si>
+  <si>
+    <t>Converged and little change between drag and lift coefficeints</t>
+  </si>
+  <si>
+    <t>Element size (fine mesh)</t>
+  </si>
+  <si>
+    <t>Element size (coarse mesh)</t>
+  </si>
+  <si>
+    <t>0.5 m</t>
+  </si>
+  <si>
+    <t>0.02 m</t>
+  </si>
+  <si>
+    <t>0.005 m</t>
+  </si>
+  <si>
+    <t>0.02 m fine mesh and 0.5 coarse mesh seems to be best option.</t>
+  </si>
+  <si>
+    <t>The mean mesh size criteria is satisfied and so this is good.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +158,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +183,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -101,9 +217,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,100 +506,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.0611999999999999</v>
+      </c>
+      <c r="B2">
+        <v>0.71845999999999999</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C10" si="0">A2*B2</f>
+        <v>1.4808897519999999</v>
+      </c>
       <c r="D2">
-        <v>100</v>
+        <v>2.9554008999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.71810739999999995</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.6280000000000001</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>7.2560000000000002</v>
+      </c>
       <c r="D3">
-        <v>90</v>
+        <v>1.1324624E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.34481457999999998</v>
       </c>
       <c r="F3">
-        <f>(D2-D3)/D2*100</f>
+        <f t="shared" ref="F3:G10" si="1">(D2-D3)/D2*100</f>
+        <v>61.681597917900078</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>51.982867743738616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.6280000000000001</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>22.512</v>
+      </c>
+      <c r="D4">
+        <v>1.0276176E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.30429148</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>9.2581263625176469</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>11.752142267302032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5.8280000000000003</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>24.477600000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0197199000000001E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.30180785999999998</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7685446415086622</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.81619767993504777</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6.8280000000000003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>35.505600000000001</v>
+      </c>
+      <c r="D6">
+        <v>1.0371132E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.2913675</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.7056938871154657</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4592737246803256</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9.6280000000000001</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>77.024000000000001</v>
+      </c>
+      <c r="D7">
+        <v>9.8964685999999996E-3</v>
+      </c>
+      <c r="E7">
+        <v>0.29569980000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>4.576775225693785</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.4868851193080941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D8">
+        <v>9.8720054999999994E-3</v>
+      </c>
+      <c r="E8">
+        <v>0.29475685000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24719019469227854</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.31888760154724416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="D9">
+        <v>9.8491657000000007E-3</v>
+      </c>
+      <c r="E9">
+        <v>0.29136630000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23135927142664917</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1502870925645974</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+      <c r="D10">
+        <v>9.7028710000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>0.29177199999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4853511907105046</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.1392405367401629</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>80</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F7" si="0">(D3-D4)/D3*100</f>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>77</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>75</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5974025974025974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>73</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>2.666666666666667</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10306</v>
+      </c>
+      <c r="D19" s="1">
+        <f>1/SQRT(C19)</f>
+        <v>9.8504241437690522E-3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.8544970000000001E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.23978103000000001</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1">
+        <v>14231</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:D26" si="2">1/SQRT(C20)</f>
+        <v>8.3826684755424017E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>D19/D20</f>
+        <v>1.1750940851960245</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.6968328000000001E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.24687503</v>
+      </c>
+      <c r="H20">
+        <f>(F19-F20)/F19*100</f>
+        <v>8.501723108745928</v>
+      </c>
+      <c r="I20">
+        <f>(G19-G20)/G19*100</f>
+        <v>-2.9585326245366401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>17489</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>7.5616663574680359E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ref="E21:E26" si="3">D20/D21</f>
+        <v>1.1085742320888741</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.5544442E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.25375240999999998</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H26" si="4">(F20-F21)/F20*100</f>
+        <v>8.3914337346614278</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I26" si="5">(G20-G21)/G20*100</f>
+        <v>-2.7857738386907691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>23574</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5130342260652473E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1610051621111017</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.4040110999999999E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.26953092000000001</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>9.6776133874731638</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>-6.2180729633267422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>35299</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>5.322538344718966E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2236707007526764</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.2465092000000001E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.28641793999999998</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>11.217995356304511</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>-6.2653368303718082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="7">
+        <v>93163</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="2"/>
+        <v>3.2762593054010284E-3</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6245778641344337</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.0974332E-2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.26555524000000003</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="4"/>
+        <v>11.95947851808876</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="5"/>
+        <v>7.2840060228070751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>226459</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1013829654395653E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5590967278616459</v>
+      </c>
+      <c r="F25">
+        <v>9.6322362999999994E-3</v>
+      </c>
+      <c r="G25">
+        <v>0.26390879</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>12.229406764803548</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>0.62000282878998036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>845227</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0877104954927549E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9319322321033561</v>
+      </c>
+      <c r="F26">
+        <v>9.2090122999999996E-3</v>
+      </c>
+      <c r="G26">
+        <v>0.26414621999999999</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>4.3938290841141407</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>-8.9966688870038378E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CFD files/Drag lift.xlsx
+++ b/CFD files/Drag lift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/mter153_uoa_auckland_ac_nz/Documents/Documents/ENGSCI 344/Assignment/Plane_wing/CFD files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{6A96FC55-E235-4CFF-85EA-4344623012AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{140E732B-94D6-421E-9A22-5424D66066D3}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="13_ncr:1_{6A96FC55-E235-4CFF-85EA-4344623012AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55963A6E-98D2-44FD-9338-57C2574E3D0D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Domain area</t>
   </si>
@@ -89,9 +89,6 @@
     <t>0.06 m</t>
   </si>
   <si>
-    <t>0.05 m</t>
-  </si>
-  <si>
     <t>0.04 m</t>
   </si>
   <si>
@@ -144,6 +141,27 @@
   </si>
   <si>
     <t>The mean mesh size criteria is satisfied and so this is good.</t>
+  </si>
+  <si>
+    <t>Solving the problem</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>Lift force (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lift coefficient </t>
+  </si>
+  <si>
+    <t>Drag force (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drag coefficient </t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -217,15 +235,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,29 +541,29 @@
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="56.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -625,27 +644,27 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>5.8280000000000003</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>4.2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>24.477600000000002</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>1.0197199000000001E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>0.30180785999999998</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>0.7685446415086622</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>0.81619767993504777</v>
       </c>
@@ -654,13 +673,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>6.8280000000000003</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>5.2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>35.505600000000001</v>
       </c>
@@ -670,11 +689,11 @@
       <c r="E6">
         <v>0.2913675</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>-1.7056938871154657</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>3.4592737246803256</v>
       </c>
@@ -699,11 +718,11 @@
       <c r="E7">
         <v>0.29569980000000001</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>4.576775225693785</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>-1.4868851193080941</v>
       </c>
@@ -725,11 +744,11 @@
       <c r="E8">
         <v>0.29475685000000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>0.24719019469227854</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>0.31888760154724416</v>
       </c>
@@ -751,23 +770,23 @@
       <c r="E9">
         <v>0.29136630000000002</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>0.23135927142664917</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>1.1502870925645974</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>32</v>
       </c>
       <c r="B10">
@@ -783,26 +802,26 @@
       <c r="E10">
         <v>0.29177199999999998</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>1.4853511907105046</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
         <v>-0.1392405367401629</v>
       </c>
       <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
         <v>26</v>
       </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -835,91 +854,91 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1">
-        <v>10306</v>
-      </c>
-      <c r="D19" s="1">
-        <f>1/SQRT(C19)</f>
-        <v>9.8504241437690522E-3</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C19">
+        <v>8164</v>
+      </c>
+      <c r="D19">
+        <f>SQRT(1/C19)</f>
+        <v>1.1067473785474295E-2</v>
+      </c>
+      <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>1.8544970000000001E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>0.23978103000000001</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
         <v>14231</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" ref="D20:D26" si="2">1/SQRT(C20)</f>
+      <c r="D20">
+        <f>SQRT(1/C20)</f>
         <v>8.3826684755424017E-3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <f>D19/D20</f>
-        <v>1.1750940851960245</v>
-      </c>
-      <c r="F20" s="1">
+        <v>1.3202805070682664</v>
+      </c>
+      <c r="F20">
         <v>1.6968328000000001E-2</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>0.24687503</v>
       </c>
       <c r="H20">
@@ -935,208 +954,304 @@
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
+      <c r="B21" t="s">
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>17489</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="2"/>
-        <v>7.5616663574680359E-3</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" ref="E21:E26" si="3">D20/D21</f>
-        <v>1.1085742320888741</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.5544442E-2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.25375240999999998</v>
+        <v>24684</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D24" si="2">SQRT(1/C21)</f>
+        <v>6.3649094728545899E-3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E25" si="3">D20/D21</f>
+        <v>1.3170129930823462</v>
+      </c>
+      <c r="F21">
+        <v>1.4040110999999999E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.26953092000000001</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H26" si="4">(F20-F21)/F20*100</f>
-        <v>8.3914337346614278</v>
+        <f t="shared" ref="H21:H25" si="4">(F20-F21)/F20*100</f>
+        <v>17.256956607628059</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I26" si="5">(G20-G21)/G20*100</f>
-        <v>-2.7857738386907691</v>
+        <f t="shared" ref="I21:I25" si="5">(G20-G21)/G20*100</f>
+        <v>-9.1770682519005717</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
+      <c r="B22" t="s">
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>23574</v>
-      </c>
-      <c r="D22" s="1">
+        <v>45170</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="2"/>
-        <v>6.5130342260652473E-3</v>
-      </c>
-      <c r="E22" s="1">
+        <v>4.7051660500043776E-3</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="3"/>
-        <v>1.1610051621111017</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.4040110999999999E-2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.26953092000000001</v>
+        <v>1.3527491708499146</v>
+      </c>
+      <c r="F22">
+        <v>1.2302772E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.28805285000000003</v>
       </c>
       <c r="H22">
         <f t="shared" si="4"/>
-        <v>9.6776133874731638</v>
+        <v>12.374111572194831</v>
       </c>
       <c r="I22">
         <f t="shared" si="5"/>
-        <v>-6.2180729633267422</v>
+        <v>-6.8719128773797156</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C23">
-        <v>35299</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="2"/>
-        <v>5.322538344718966E-3</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2236707007526764</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1.2465092000000001E-2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.28641793999999998</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="4"/>
-        <v>11.217995356304511</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="5"/>
-        <v>-6.2653368303718082</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="6">
         <v>93163</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D23" s="6">
         <f t="shared" si="2"/>
         <v>3.2762593054010284E-3</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E23" s="6">
         <f t="shared" si="3"/>
-        <v>1.6245778641344337</v>
-      </c>
-      <c r="F24" s="7">
+        <v>1.436139698175827</v>
+      </c>
+      <c r="F23" s="6">
         <v>1.0974332E-2</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G23" s="6">
         <v>0.26555524000000003</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="4"/>
-        <v>11.95947851808876</v>
-      </c>
-      <c r="I24" s="7">
+        <v>10.797891727165229</v>
+      </c>
+      <c r="I23" s="6">
         <f t="shared" si="5"/>
-        <v>7.2840060228070751</v>
+        <v>7.8102369061788481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>226459</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>2.1013829654395653E-3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>1.5590967278616459</v>
+      </c>
+      <c r="F24">
+        <v>9.8522363000000009E-3</v>
+      </c>
+      <c r="G24">
+        <v>0.26390879</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>10.224728940221592</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>0.62000282878998036</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>226459</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="2"/>
-        <v>2.1013829654395653E-3</v>
-      </c>
-      <c r="E25" s="1">
+        <v>845227</v>
+      </c>
+      <c r="D25">
+        <f>SQRT(1/C25)</f>
+        <v>1.0877104954927549E-3</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="3"/>
-        <v>1.5590967278616459</v>
+        <v>1.9319322321033561</v>
       </c>
       <c r="F25">
-        <v>9.6322362999999994E-3</v>
+        <v>9.5090122999999995E-3</v>
       </c>
       <c r="G25">
-        <v>0.26390879</v>
+        <v>0.26414621999999999</v>
       </c>
       <c r="H25">
         <f t="shared" si="4"/>
-        <v>12.229406764803548</v>
+        <v>3.4837166867384339</v>
       </c>
       <c r="I25">
         <f t="shared" si="5"/>
-        <v>0.62000282878998036</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <v>-8.9966688870038378E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>845227</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0877104954927549E-3</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9319322321033561</v>
-      </c>
-      <c r="F26">
-        <v>9.2090122999999996E-3</v>
-      </c>
-      <c r="G26">
-        <v>0.26414621999999999</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="4"/>
-        <v>4.3938290841141407</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="5"/>
-        <v>-8.9966688870038378E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-5</v>
+      </c>
+      <c r="B33">
+        <v>-917.57059000000004</v>
+      </c>
+      <c r="C33">
+        <v>-0.23119719</v>
+      </c>
+      <c r="D33">
+        <v>78.822073000000003</v>
+      </c>
+      <c r="E33">
+        <v>1.9860533999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>1046.6519000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.26372137000000001</v>
+      </c>
+      <c r="D34">
+        <v>43.411212999999996</v>
+      </c>
+      <c r="E34">
+        <v>1.0938178E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>3043.8941</v>
+      </c>
+      <c r="C35">
+        <v>0.76695981000000002</v>
+      </c>
+      <c r="D35">
+        <v>68.545665999999997</v>
+      </c>
+      <c r="E35">
+        <v>1.7271221999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>3842.0934000000002</v>
+      </c>
+      <c r="C36">
+        <v>0.96807940999999997</v>
+      </c>
+      <c r="D36">
+        <v>166.97519</v>
+      </c>
+      <c r="E36">
+        <v>4.2072179000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>7766.3413</v>
+      </c>
+      <c r="C37">
+        <v>1.51546</v>
+      </c>
+      <c r="D37">
+        <v>2158.1179000000002</v>
+      </c>
+      <c r="E37">
+        <v>0.54377374000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>6625.8742000000002</v>
+      </c>
+      <c r="C38">
+        <v>1.6694993</v>
+      </c>
+      <c r="D38">
+        <v>2906.4699000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.73233349000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/CFD files/Drag lift.xlsx
+++ b/CFD files/Drag lift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/mter153_uoa_auckland_ac_nz/Documents/Documents/ENGSCI 344/Assignment/Plane_wing/CFD files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="13_ncr:1_{6A96FC55-E235-4CFF-85EA-4344623012AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55963A6E-98D2-44FD-9338-57C2574E3D0D}"/>
+  <xr:revisionPtr revIDLastSave="435" documentId="13_ncr:1_{6A96FC55-E235-4CFF-85EA-4344623012AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF3015EC-5CFF-4578-BA83-236B2ACE0CC9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Domain area</t>
   </si>
@@ -161,7 +161,16 @@
     <t xml:space="preserve">Drag coefficient </t>
   </si>
   <si>
-    <t>+</t>
+    <t>Data Lift Coefficient</t>
+  </si>
+  <si>
+    <t>Data Drag Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cl/Cd </t>
+  </si>
+  <si>
+    <t>Cl/Cd Data</t>
   </si>
 </sst>
 </file>
@@ -235,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -243,7 +252,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -260,6 +268,4528 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Lift</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Coefficient vs AOA</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lift coefficient </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.23119700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26372099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76695899999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96806999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9524999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B1D-431C-BE5A-2CBEA0B2587B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Lift Coefficient</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$33:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.3422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0710999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B1D-431C-BE5A-2CBEA0B2587B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="388200592"/>
+        <c:axId val="550855808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="388200592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Angle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> of Attack (AOA) in degrees</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550855808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="550855808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Lift</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> Coefficient</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388200592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Drag</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Coefficient vs AOA</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Drag coefficient </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9859999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0938E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7271000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2071999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54377370000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94A7-4800-8768-C3F99FFFDDBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Drag Coefficient</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$33:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1089999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1039999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0700000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94A7-4800-8768-C3F99FFFDDBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="432267312"/>
+        <c:axId val="446879152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="432267312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Angle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> of Attack (AOA) in degrees</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446879152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="446879152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Drag</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> Coefficient</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432267312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Cl/Cd</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> vs AOA</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cl/Cd </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$33:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-11.641339375629407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.110532089961602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.407330206704877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.009840273816316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5906480949703892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AE6-4E59-996C-65235818E47F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cl/Cd Data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$33:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-30.85662759242561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.792079207920793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.782608695652179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.889250814332243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AE6-4E59-996C-65235818E47F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="581591520"/>
+        <c:axId val="544142720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="581591520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Angle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> of Attack (AOA) in degrees</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544142720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544142720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Cl/Cd</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="581591520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Lift</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> and Drag Forces vs AOA</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lift force (N)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-917.57059000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1046.6519000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3043.8941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3842.0934000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7749.0672999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AFA-4E1D-8622-8BE2B05D8E19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Drag force (N)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$33:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.822073000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.411212999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.545665999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166.97519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2158.1179000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AFA-4E1D-8622-8BE2B05D8E19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="446606288"/>
+        <c:axId val="543327920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="446606288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Angle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> of Attack (AOA) in degrees</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543327920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543327920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Force</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446606288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22718C4C-6A10-EB6A-9935-83271D29AFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA06DB66-977D-C54C-B661-49282227FB38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CE4C30-9609-D11C-DBF6-FB95ADA6314D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F4FB18-0ECC-98A0-A2CE-2D1CCD11B1CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,26 +5055,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -567,7 +5097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.0611999999999999</v>
       </c>
@@ -591,7 +5121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.6280000000000001</v>
       </c>
@@ -617,7 +5147,7 @@
         <v>51.982867743738616</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5.6280000000000001</v>
       </c>
@@ -643,7 +5173,7 @@
         <v>11.752142267302032</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5.8280000000000003</v>
       </c>
@@ -672,7 +5202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6.8280000000000003</v>
       </c>
@@ -701,7 +5231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9.6280000000000001</v>
       </c>
@@ -727,7 +5257,7 @@
         <v>-1.4868851193080941</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20</v>
       </c>
@@ -753,7 +5283,7 @@
         <v>0.31888760154724416</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>24</v>
       </c>
@@ -785,8 +5315,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>32</v>
       </c>
       <c r="B10">
@@ -817,15 +5347,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -839,7 +5369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -853,12 +5383,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -887,7 +5417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -917,7 +5447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -950,7 +5480,7 @@
         <v>-2.9585326245366401</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -983,7 +5513,7 @@
         <v>-9.1770682519005717</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1016,7 +5546,7 @@
         <v>-6.8719128773797156</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
@@ -1049,7 +5579,7 @@
         <v>7.8102369061788481</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +5612,7 @@
         <v>0.62000282878998036</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1115,22 +5645,22 @@
         <v>-8.9966688870038378E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1146,8 +5676,20 @@
       <c r="E32" t="s">
         <v>40</v>
       </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-5</v>
       </c>
@@ -1155,16 +5697,30 @@
         <v>-917.57059000000004</v>
       </c>
       <c r="C33">
-        <v>-0.23119719</v>
+        <v>-0.23119700000000001</v>
       </c>
       <c r="D33">
         <v>78.822073000000003</v>
       </c>
       <c r="E33">
-        <v>1.9860533999999999E-2</v>
+        <v>1.9859999999999999E-2</v>
+      </c>
+      <c r="F33">
+        <v>-0.3422</v>
+      </c>
+      <c r="G33">
+        <v>1.1089999999999999E-2</v>
+      </c>
+      <c r="H33">
+        <f>C33/E33</f>
+        <v>-11.641339375629407</v>
+      </c>
+      <c r="I33">
+        <f>F33/G33</f>
+        <v>-30.85662759242561</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1172,16 +5728,30 @@
         <v>1046.6519000000001</v>
       </c>
       <c r="C34">
-        <v>0.26372137000000001</v>
+        <v>0.26372099999999998</v>
       </c>
       <c r="D34">
         <v>43.411212999999996</v>
       </c>
       <c r="E34">
-        <v>1.0938178E-2</v>
+        <v>1.0938E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.1757</v>
+      </c>
+      <c r="G34">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H38" si="6">C34/E34</f>
+        <v>24.110532089961602</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I36" si="7">F34/G34</f>
+        <v>34.792079207920793</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1189,16 +5759,30 @@
         <v>3043.8941</v>
       </c>
       <c r="C35">
-        <v>0.76695981000000002</v>
+        <v>0.76695899999999995</v>
       </c>
       <c r="D35">
         <v>68.545665999999997</v>
       </c>
       <c r="E35">
-        <v>1.7271221999999999E-2</v>
+        <v>1.7271000000000002E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.66</v>
+      </c>
+      <c r="G35">
+        <v>1.1039999999999999E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>44.407330206704877</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="7"/>
+        <v>59.782608695652179</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1206,33 +5790,57 @@
         <v>3842.0934000000002</v>
       </c>
       <c r="C36">
-        <v>0.96807940999999997</v>
+        <v>0.96806999999999999</v>
       </c>
       <c r="D36">
         <v>166.97519</v>
       </c>
       <c r="E36">
-        <v>4.2072179000000001E-2</v>
+        <v>4.2071999999999998E-2</v>
+      </c>
+      <c r="F36">
+        <v>1.0710999999999999</v>
+      </c>
+      <c r="G36">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>23.009840273816316</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="7"/>
+        <v>34.889250814332243</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>15</v>
       </c>
       <c r="B37">
-        <v>7766.3413</v>
+        <v>7749.0672999999997</v>
       </c>
       <c r="C37">
-        <v>1.51546</v>
+        <v>1.9524999999999999</v>
       </c>
       <c r="D37">
         <v>2158.1179000000002</v>
       </c>
       <c r="E37">
-        <v>0.54377374000000001</v>
+        <v>0.54377370000000003</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>3.5906480949703892</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20</v>
       </c>
@@ -1240,23 +5848,29 @@
         <v>6625.8742000000002</v>
       </c>
       <c r="C38">
-        <v>1.6694993</v>
+        <v>1.6694899999999999</v>
       </c>
       <c r="D38">
         <v>2906.4699000000001</v>
       </c>
       <c r="E38">
-        <v>0.73233349000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
-        <v>41</v>
+        <v>0.73233300000000001</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>2.2796869730027187</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CFD files/Drag lift.xlsx
+++ b/CFD files/Drag lift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/mter153_uoa_auckland_ac_nz/Documents/Documents/ENGSCI 344/Assignment/Plane_wing/CFD files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="13_ncr:1_{6A96FC55-E235-4CFF-85EA-4344623012AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF3015EC-5CFF-4578-BA83-236B2ACE0CC9}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="13_ncr:1_{6A96FC55-E235-4CFF-85EA-4344623012AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C46F0373-5AC5-4A3A-84BD-BDCD89D21B0F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,10 +402,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:f>Sheet1!$C$33:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-0.23119700000000001</c:v>
                 </c:pt>
@@ -417,9 +417,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.96806999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9524999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,6 +454,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$33:$F$36</c:f>
@@ -915,10 +936,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$33:$A$38</c:f>
+              <c:f>Sheet1!$A$33:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-5</c:v>
                 </c:pt>
@@ -930,22 +951,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$33:$E$37</c:f>
+              <c:f>Sheet1!$E$33:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.9859999999999999E-2</c:v>
                 </c:pt>
@@ -957,9 +972,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.2071999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54377370000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,6 +1009,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$33:$G$36</c:f>
@@ -1455,10 +1488,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$33:$A$37</c:f>
+              <c:f>Sheet1!$A$33:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-5</c:v>
                 </c:pt>
@@ -1470,19 +1503,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$33:$H$37</c:f>
+              <c:f>Sheet1!$H$33:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-11.641339375629407</c:v>
                 </c:pt>
@@ -1494,9 +1524,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>23.009840273816316</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5906480949703892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,6 +1561,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$I$33:$I$36</c:f>
@@ -2419,6 +2467,2514 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lift Coefficient vs AOA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lift coefficient </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.23119700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26372099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76695899999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96806999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9524999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E23-4544-97F9-F184C5DC3C1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1901212367"/>
+        <c:axId val="1863609647"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1901212367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Angle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> of Attack (AOA) in degrees</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1863609647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1863609647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Cl</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901212367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Drag coefficient</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs AOA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Drag coefficient </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9859999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0938E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7271000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2071999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54377370000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-609A-42B7-A0BC-C39187E6E5D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1264876671"/>
+        <c:axId val="1229742207"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1264876671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Angle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> of Attack (AOA) in degrees</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1229742207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1229742207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Cd</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1264876671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cl/Cd vs AOA </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cl/Cd </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$33:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-11.641339375629407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.110532089961602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.407330206704877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.009840273816316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5906480949703892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE1F-444D-9703-FE975BC11CF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1304852143"/>
+        <c:axId val="1296740335"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1304852143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Angle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> of Attack (AOA) in degrees</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296740335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1296740335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Cl/Cd</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1304852143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Domain</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Convergence</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Difference for drag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.477600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.505600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>61.681597917900078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2581263625176469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7685446415086622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7056938871154657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.576775225693785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24719019469227854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23135927142664917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4853511907105046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA4B-48AE-9883-0C9A10F50BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Difference for lift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.477600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.505600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>51.982867743738616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.752142267302032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81619767993504777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4592737246803256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4868851193080941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31888760154724416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1502870925645974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1392405367401629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DA4B-48AE-9883-0C9A10F50BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1266613839"/>
+        <c:axId val="1229735967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1266613839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Domain</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> Area (m^2)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1229735967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1229735967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Change</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> in Cl and Cd (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1266613839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Mesh</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Convergence</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Difference for drag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$20:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.06 m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04 m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03 m</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02 m</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01 m</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.005 m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$20:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.501723108745928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.256956607628059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.374111572194831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.797891727165229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.224728940221592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4837166867384339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AFB-43B6-875A-DFE712ECB2A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Difference for lift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$20:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.06 m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04 m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03 m</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02 m</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01 m</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.005 m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$20:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9585326245366401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1770682519005717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8719128773797156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8102369061788481</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62000282878998036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9966688870038378E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AFB-43B6-875A-DFE712ECB2A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1363286383"/>
+        <c:axId val="1296730735"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1363286383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Fine</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> Mesh Size (m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296730735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1296730735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Change</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> in Cl and Cd (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363286383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2579,6 +5135,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4128,6 +6884,2586 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4756,15 +10092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>792480</xdr:colOff>
+      <xdr:colOff>792481</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4784,6 +10120,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8C5002-0484-B13F-3B06-4CEC2CD99BBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C171D3-9E1D-609A-6D32-4A9A1035ACF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B92DD93-57BB-8695-8C64-2272A6CCA89B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4F2066-A525-476A-B4AC-9AC2AA0A2DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F39DC9-E40A-F607-63C2-FB84F0C018A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5057,24 +10573,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5097,7 +10613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.0611999999999999</v>
       </c>
@@ -5121,7 +10637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.6280000000000001</v>
       </c>
@@ -5147,7 +10663,7 @@
         <v>51.982867743738616</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6280000000000001</v>
       </c>
@@ -5173,7 +10689,7 @@
         <v>11.752142267302032</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.8280000000000003</v>
       </c>
@@ -5202,7 +10718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.8280000000000003</v>
       </c>
@@ -5231,7 +10747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9.6280000000000001</v>
       </c>
@@ -5257,7 +10773,7 @@
         <v>-1.4868851193080941</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -5283,7 +10799,7 @@
         <v>0.31888760154724416</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24</v>
       </c>
@@ -5315,7 +10831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32</v>
       </c>
@@ -5347,15 +10863,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5369,7 +10885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -5383,12 +10899,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5417,7 +10933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -5447,7 +10963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -5476,11 +10992,11 @@
         <v>8.501723108745928</v>
       </c>
       <c r="I20">
-        <f>(G19-G20)/G19*100</f>
-        <v>-2.9585326245366401</v>
+        <f>ABS((G19-G20)/G19*100)</f>
+        <v>2.9585326245366401</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -5509,11 +11025,11 @@
         <v>17.256956607628059</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I25" si="5">(G20-G21)/G20*100</f>
-        <v>-9.1770682519005717</v>
+        <f>ABS((G20-G21)/G20*100)</f>
+        <v>9.1770682519005717</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -5542,11 +11058,11 @@
         <v>12.374111572194831</v>
       </c>
       <c r="I22">
-        <f t="shared" si="5"/>
-        <v>-6.8719128773797156</v>
+        <f>ABS((G21-G22)/G21*100)</f>
+        <v>6.8719128773797156</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
@@ -5575,11 +11091,11 @@
         <v>10.797891727165229</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I21:I25" si="5">(G22-G23)/G22*100</f>
         <v>7.8102369061788481</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -5612,7 +11128,7 @@
         <v>0.62000282878998036</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5641,26 +11157,26 @@
         <v>3.4837166867384339</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
-        <v>-8.9966688870038378E-2</v>
+        <f>ABS((G24-G25)/G24*100)</f>
+        <v>8.9966688870038378E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -5689,7 +11205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-5</v>
       </c>
@@ -5720,7 +11236,7 @@
         <v>-30.85662759242561</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -5751,7 +11267,7 @@
         <v>34.792079207920793</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -5782,7 +11298,7 @@
         <v>59.782608695652179</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -5813,7 +11329,7 @@
         <v>34.889250814332243</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>15</v>
       </c>
@@ -5840,7 +11356,7 @@
         <v>3.5906480949703892</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20</v>
       </c>
